--- a/src/main/java/DataSheets/Testsheet.xlsx
+++ b/src/main/java/DataSheets/Testsheet.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VijayBala\IdeaProject\src\main\java\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74888C2E-C44A-4D62-82A5-04B03CB631D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430F4C60-1759-4A9E-9468-8A65C5B298E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Robin</t>
   </si>
@@ -64,12 +65,44 @@
   </si>
   <si>
     <t>State</t>
+  </si>
+  <si>
+    <t>REQUESTPAYLOAD</t>
+  </si>
+  <si>
+    <t>place_id</t>
+  </si>
+  <si>
+    <t>d8c40a86213daa4983ef643033090342</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>qaclick123</t>
+  </si>
+  <si>
+    <t>Walter Veeraiya, KGF, Karnataka</t>
+  </si>
+  <si>
+    <t>{
+  "place_id": "~place_id",
+  "address": "~address",
+  "key": "~key"
+}</t>
+  </si>
+  <si>
+    <t>ddde4b487cd3462e02458e52b2582b15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,8 +132,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,66 +416,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E4E32D-78F7-41BD-9694-11F859F0551E}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="36.109375"/>
+    <col min="2" max="2" customWidth="true" width="29.5546875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="10" customWidth="1"/>
+    <col min="2" max="3" customWidth="true" width="10.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>70000</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>10000</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>7</v>
       </c>
     </row>

--- a/src/main/java/DataSheets/Testsheet.xlsx
+++ b/src/main/java/DataSheets/Testsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VijayBala\IdeaProject\src\main\java\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430F4C60-1759-4A9E-9468-8A65C5B298E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0EDE32-3C5D-4811-A827-6BBE62AD233A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Robin</t>
   </si>
@@ -73,19 +73,13 @@
     <t>place_id</t>
   </si>
   <si>
-    <t>d8c40a86213daa4983ef643033090342</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
+    <t>RESPONSEPAYLOAD</t>
+  </si>
+  <si>
     <t>key</t>
-  </si>
-  <si>
-    <t>qaclick123</t>
-  </si>
-  <si>
-    <t>Walter Veeraiya, KGF, Karnataka</t>
   </si>
   <si>
     <t>{
@@ -95,7 +89,25 @@
 }</t>
   </si>
   <si>
-    <t>ddde4b487cd3462e02458e52b2582b15</t>
+    <t>Banglore</t>
+  </si>
+  <si>
+    <t>qaclick123</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>9dc0432fdc2a8fb9c6a1a61b796c4b1d</t>
+  </si>
+  <si>
+    <t>7cefd91ef7bf0119a00d61b805e836ee</t>
+  </si>
+  <si>
+    <t>372655ba2b3333b9a80538b9a14171ed</t>
+  </si>
+  <si>
+    <t>099761d20f994f6f5fc07fec5605e523</t>
   </si>
 </sst>
 </file>
@@ -112,12 +124,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="58"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="58"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,11 +159,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,44 +449,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E4E32D-78F7-41BD-9694-11F859F0551E}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.109375"/>
-    <col min="2" max="2" customWidth="true" width="29.5546875"/>
+    <col min="1" max="1" customWidth="true" width="32.88671875"/>
+    <col min="2" max="2" customWidth="true" width="21.33203125"/>
+    <col min="3" max="3" customWidth="true" width="22.21875"/>
+    <col min="4" max="4" customWidth="true" width="20.44140625"/>
+    <col min="5" max="5" customWidth="true" width="28.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>13</v>
       </c>
       <c r="B1" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C1" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>18</v>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/DataSheets/Testsheet.xlsx
+++ b/src/main/java/DataSheets/Testsheet.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Robin</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>099761d20f994f6f5fc07fec5605e523</t>
+  </si>
+  <si>
+    <t>aac64f54739159228ec7d85f43e92f83</t>
+  </si>
+  <si>
+    <t>a5d666c12cece0e8ff5f6b9199a2bed7</t>
   </si>
 </sst>
 </file>
@@ -159,12 +165,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
@@ -491,11 +501,11 @@
       <c r="C2" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
+      <c r="E2" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -508,11 +518,11 @@
       <c r="C3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>25</v>
+      <c r="E3" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/DataSheets/Testsheet.xlsx
+++ b/src/main/java/DataSheets/Testsheet.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Robin</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>a5d666c12cece0e8ff5f6b9199a2bed7</t>
+  </si>
+  <si>
+    <t>b5d7f410151afbc30bd4288c0fdeaf44</t>
+  </si>
+  <si>
+    <t>e582cd6323d7253dcaf8f52701fa43a5</t>
   </si>
 </sst>
 </file>
@@ -165,12 +171,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
@@ -501,11 +511,11 @@
       <c r="C2" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>26</v>
+      <c r="E2" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -518,11 +528,11 @@
       <c r="C3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>27</v>
+      <c r="E3" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/DataSheets/Testsheet.xlsx
+++ b/src/main/java/DataSheets/Testsheet.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VijayBala\IdeaProject\src\main\java\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0EDE32-3C5D-4811-A827-6BBE62AD233A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CBA41B-DECE-4187-BEF6-7C8ECDB7DF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Robin</t>
   </si>
@@ -98,28 +99,43 @@
     <t>Chennai</t>
   </si>
   <si>
-    <t>9dc0432fdc2a8fb9c6a1a61b796c4b1d</t>
-  </si>
-  <si>
-    <t>7cefd91ef7bf0119a00d61b805e836ee</t>
-  </si>
-  <si>
-    <t>372655ba2b3333b9a80538b9a14171ed</t>
-  </si>
-  <si>
-    <t>099761d20f994f6f5fc07fec5605e523</t>
-  </si>
-  <si>
-    <t>aac64f54739159228ec7d85f43e92f83</t>
-  </si>
-  <si>
-    <t>a5d666c12cece0e8ff5f6b9199a2bed7</t>
-  </si>
-  <si>
-    <t>b5d7f410151afbc30bd4288c0fdeaf44</t>
-  </si>
-  <si>
-    <t>e582cd6323d7253dcaf8f52701fa43a5</t>
+    <t>{
+  "location": {
+    "lat": -38.383494,
+    "lng": 33.427362
+  },
+  "accuracy": 50,
+  "name": "Frontline house",
+  "phone_number": "(+91) 983 893 3937",
+  "address": "29, side layout, cohen 09",
+  "types": [
+    "shoe park",
+    "shop"
+  ],
+  "website": "http://google.com",
+  "language": "French-IN"
+}</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>{"status":"OK","place_id":"84d87498dcd945629851946cd61523e0","scope":"APP","reference":"4329aa6c6ee182573ed211dc408ac7254329aa6c6ee182573ed211dc408ac725","id":"4329aa6c6ee182573ed211dc408ac725"}</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>0d32ae3fd27814b7ab921e81ef5f8b59</t>
+  </si>
+  <si>
+    <t>4f9302e0f46baa74ebd420dd50189f6a</t>
+  </si>
+  <si>
+    <t>181b7ae2882fa39f355de28be3bd073e</t>
+  </si>
+  <si>
+    <t>ca008a7dfa37d35f5d0ada20a3321ec8</t>
   </si>
 </sst>
 </file>
@@ -136,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,16 +161,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="58"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="58"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="58"/>
       </patternFill>
     </fill>
@@ -171,24 +182,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E4E32D-78F7-41BD-9694-11F859F0551E}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,7 +488,7 @@
     <col min="5" max="5" customWidth="true" width="28.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>13</v>
       </c>
@@ -500,8 +504,11 @@
       <c r="E1" t="s" s="0">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="F1" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -511,14 +518,17 @@
       <c r="C2" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="F2" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -528,11 +538,14 @@
       <c r="C3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="3" t="s">
         <v>29</v>
+      </c>
+      <c r="F3" t="s" s="7">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -541,6 +554,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB3A1A4-4A21-4197-ABAD-35D15F87B213}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="28.109375"/>
+    <col min="2" max="2" customWidth="true" width="24.21875"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>

--- a/src/main/java/DataSheets/Testsheet.xlsx
+++ b/src/main/java/DataSheets/Testsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VijayBala\IdeaProject\src\main\java\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CBA41B-DECE-4187-BEF6-7C8ECDB7DF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398F1188-0299-4117-821C-2AA9A809A6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Robin</t>
   </si>
@@ -126,16 +126,22 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>0d32ae3fd27814b7ab921e81ef5f8b59</t>
-  </si>
-  <si>
-    <t>4f9302e0f46baa74ebd420dd50189f6a</t>
-  </si>
-  <si>
     <t>181b7ae2882fa39f355de28be3bd073e</t>
   </si>
   <si>
     <t>ca008a7dfa37d35f5d0ada20a3321ec8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>TestcaseID</t>
+  </si>
+  <si>
+    <t>TS01_TC01</t>
+  </si>
+  <si>
+    <t>TS02_TC01</t>
   </si>
 </sst>
 </file>
@@ -182,13 +188,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
@@ -473,78 +478,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E4E32D-78F7-41BD-9694-11F859F0551E}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.88671875"/>
-    <col min="2" max="2" customWidth="true" width="21.33203125"/>
-    <col min="3" max="3" customWidth="true" width="22.21875"/>
-    <col min="4" max="4" customWidth="true" width="20.44140625"/>
-    <col min="5" max="5" customWidth="true" width="28.5546875"/>
+    <col min="1" max="1" customWidth="true" width="20.6640625"/>
+    <col min="2" max="2" customWidth="true" width="32.88671875"/>
+    <col min="3" max="3" customWidth="true" width="21.33203125"/>
+    <col min="4" max="4" customWidth="true" width="22.21875"/>
+    <col min="5" max="5" customWidth="true" width="20.44140625"/>
+    <col min="6" max="6" customWidth="true" width="28.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="D1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="E1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="F1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="G1" t="s" s="0">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="C3" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="D3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s" s="7">
+      <c r="E3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s" s="6">
         <v>25</v>
       </c>
     </row>
